--- a/hz-back/src/main/resources/excel/report_10.xlsx
+++ b/hz-back/src/main/resources/excel/report_10.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50991D2-A93A-463A-9527-6226E88E0AE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,10 +68,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>一级支行</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>贷款账号</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -109,15 +106,19 @@
     <t>CLA_RESULT</t>
   </si>
   <si>
-    <t>$MAIN_BR_ID</t>
+    <t>贷款机构</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$MAIN_BR_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,14 +242,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -256,11 +257,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -302,7 +311,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,9 +343,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,6 +395,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,79 +588,79 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="6" customWidth="1"/>
-    <col min="4" max="8" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="6" customWidth="1"/>
+    <col min="4" max="8" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="25.8" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="13.2" customHeight="1">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="3"/>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="5" customFormat="1" ht="28.8">
+    <row r="3" spans="1:9" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>21</v>
       </c>
@@ -638,13 +683,13 @@
         <v>6</v>
       </c>
       <c r="H4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
@@ -655,7 +700,7 @@
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
@@ -666,7 +711,7 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="8"/>
@@ -677,7 +722,7 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
@@ -688,7 +733,7 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
@@ -699,7 +744,7 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
@@ -710,7 +755,7 @@
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -721,7 +766,7 @@
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
@@ -732,7 +777,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -755,12 +800,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -769,12 +814,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
